--- a/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
+++ b/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Johan\GitHub\mes repertoire\Portfolio\html\assets\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.vadenne\Desktop\GitHub\Portfolio\html\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B69186-69DC-4607-8EAD-6C49A71A73E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0E189-C0D9-4F8F-B4CC-7E70E00F6CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9290" yWindow="10730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>BugSafari</t>
+  </si>
+  <si>
+    <t>Les Frelots</t>
   </si>
 </sst>
 </file>
@@ -644,15 +647,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,36 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="C6:H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1130,30 +1133,30 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="39" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1165,22 +1168,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1203,24 +1206,24 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1260,16 +1263,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1308,24 +1311,21 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="42" t="e" vm="1">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="42" t="e" vm="1">
+      <c r="D9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="42" t="e" vm="1">
+      <c r="E9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="F9" s="42" t="e" vm="1">
+      <c r="F9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="42" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="42" t="e" vm="1">
+      <c r="G9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="I9"/>
@@ -1365,14 +1365,27 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G10" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1770,16 +1783,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2132,16 +2145,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2586,11 +2599,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2598,6 +2606,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
+++ b/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.vadenne\Desktop\GitHub\Portfolio\html\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0E189-C0D9-4F8F-B4CC-7E70E00F6CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CCD2F-A84B-48F2-8EF5-C4704A43AD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9290" yWindow="10730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Les Frelots</t>
+  </si>
+  <si>
+    <t>Flash⚡Badge</t>
+  </si>
+  <si>
+    <t>pokedex viewer</t>
   </si>
 </sst>
 </file>
@@ -653,9 +659,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -678,45 +723,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1100,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1107,56 +1113,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1168,22 +1174,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1206,8 +1212,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1263,16 +1269,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1313,6 +1319,7 @@
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -1328,6 +1335,7 @@
       <c r="G9" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
+      <c r="H9" s="15"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1366,14 +1374,11 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" s="20" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -1383,9 +1388,7 @@
       <c r="G10" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="20" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="H10" s="15"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1423,13 +1426,21 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1468,7 +1479,9 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1783,16 +1796,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2145,16 +2158,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2599,6 +2612,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2606,11 +2624,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
+++ b/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.vadenne\Desktop\GitHub\Portfolio\html\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CCD2F-A84B-48F2-8EF5-C4704A43AD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17521614-C115-4E67-B79D-A7C64110E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9290" yWindow="10730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>pokedex viewer</t>
+  </si>
+  <si>
+    <t>Destination Culture</t>
   </si>
 </sst>
 </file>
@@ -659,15 +662,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,30 +726,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,7 +1103,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1113,56 +1116,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="41" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1174,22 +1177,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1212,8 +1215,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1269,16 +1272,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1480,14 +1483,20 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1526,7 +1535,9 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1796,16 +1807,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2158,16 +2169,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2612,11 +2623,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2624,6 +2630,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
+++ b/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.vadenne\Desktop\GitHub\Portfolio\html\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17521614-C115-4E67-B79D-A7C64110E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88151B55-1527-4956-A242-4EBF415F1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9290" yWindow="10730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -147,9 +147,6 @@
     <t>✔ SLAM</t>
   </si>
   <si>
-    <t>BugSafari</t>
-  </si>
-  <si>
     <t>Les Frelots</t>
   </si>
   <si>
@@ -160,6 +157,12 @@
   </si>
   <si>
     <t>Destination Culture</t>
+  </si>
+  <si>
+    <t>Pikmin Parking Map</t>
+  </si>
+  <si>
+    <t>Bot Veille</t>
   </si>
 </sst>
 </file>
@@ -662,9 +665,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -687,45 +729,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1116,56 +1119,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="29"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="42"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1177,22 +1180,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1215,8 +1218,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1272,16 +1275,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="20" t="e" vm="1">
@@ -1377,7 +1380,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="14"/>
@@ -1430,7 +1433,7 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="14"/>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="14"/>
@@ -1536,14 +1539,20 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H13" s="15"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1582,14 +1591,24 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G14" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1807,16 +1826,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2169,16 +2188,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2623,6 +2642,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2630,11 +2654,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
+++ b/html/assets/document/04 - Tableau de synthèse - Epreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.vadenne\Desktop\GitHub\Portfolio\html\assets\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88151B55-1527-4956-A242-4EBF415F1425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747797BB-2F74-488F-A82F-884267AF602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9290" yWindow="10730" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Bot Veille</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Tirage au sort</t>
   </si>
 </sst>
 </file>
@@ -665,15 +671,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,30 +735,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,7 +1112,7 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1119,56 +1125,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="41" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="42"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1180,22 +1186,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1218,8 +1224,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
@@ -1275,16 +1281,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1646,13 +1652,21 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" s="8"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G15" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1691,13 +1705,17 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B16" s="8"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="20" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1826,16 +1844,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2188,16 +2206,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2642,11 +2660,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2654,6 +2667,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
